--- a/Data/g11.11.xlsx
+++ b/Data/g11.11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>instituicao</t>
+          <t>conta</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>uf</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>coluna</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>conta</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>valor</t>
         </is>
@@ -468,720 +453,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="C2" t="n">
         <v>69.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="C3" t="n">
         <v>4385703603.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="C4" t="n">
         <v>6353339374.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="C5" t="n">
         <v>60.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="C6" t="n">
         <v>4101940899.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="C7" t="n">
         <v>6787495872.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="C8" t="n">
         <v>57.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="C9" t="n">
         <v>3992519479.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="C10" t="n">
         <v>6885059829.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="C11" t="n">
         <v>46.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="C12" t="n">
         <v>3400013691.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="C13" t="n">
         <v>7371485136.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="C14" t="n">
         <v>45.88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="C15" t="n">
         <v>3695263444.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="C16" t="n">
         <v>8053614115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="C17" t="n">
         <v>38.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="C18" t="n">
         <v>3364371947.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="C19" t="n">
         <v>8724606234.620001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="C20" t="n">
         <v>29.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="C21" t="n">
         <v>2843275395.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="C22" t="n">
         <v>9674448310.219999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>% da DCL sobre a RCL</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="C23" t="n">
         <v>31.38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="C24" t="n">
         <v>3543671294.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Governo do Estado de Sergipe</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Até o 3º Quadrimestre</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>RECEITA CORRENTE LÍQUIDA</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="C25" t="n">
         <v>11296095375.56</v>
       </c>
     </row>

--- a/Data/g11.11.xlsx
+++ b/Data/g11.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F5D944-C4B2-4F31-AA32-792696583AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127FD37-FCBA-4111-9D2A-E83D22B96090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>exercicio</t>
   </si>
@@ -44,19 +44,40 @@
   </si>
   <si>
     <t>% da DCL sobre a RCL AJUSTADA (III/VI)</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,18 +96,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,8 +461,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2015</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -463,8 +472,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2016</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -474,8 +483,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -485,8 +494,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2018</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -496,8 +505,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2019</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -507,8 +516,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2020</v>
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -518,8 +527,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2021</v>
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -529,8 +538,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2022</v>
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -540,8 +549,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2023</v>
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -551,8 +560,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -562,8 +571,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -573,8 +582,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -584,8 +593,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
+      <c r="A14" t="s">
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -595,8 +604,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -606,8 +615,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2020</v>
+      <c r="A16" t="s">
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -617,8 +626,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2021</v>
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -628,8 +637,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
+      <c r="A18" t="s">
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -639,8 +648,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023</v>
+      <c r="A19" t="s">
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -650,8 +659,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2015</v>
+      <c r="A20" t="s">
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -661,8 +670,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2016</v>
+      <c r="A21" t="s">
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -672,8 +681,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2017</v>
+      <c r="A22" t="s">
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -683,8 +692,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2018</v>
+      <c r="A23" t="s">
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -694,8 +703,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2019</v>
+      <c r="A24" t="s">
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -705,8 +714,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2020</v>
+      <c r="A25" t="s">
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -716,8 +725,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2021</v>
+      <c r="A26" t="s">
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -727,8 +736,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2022</v>
+      <c r="A27" t="s">
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -738,8 +747,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2023</v>
+      <c r="A28" t="s">
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>

--- a/Data/g11.11.xlsx
+++ b/Data/g11.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127FD37-FCBA-4111-9D2A-E83D22B96090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2698EA-DB86-44A3-B639-C14391F28BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>exercicio</t>
   </si>
@@ -31,21 +31,6 @@
     <t>valor</t>
   </si>
   <si>
-    <t>RECEITA CORRENTE LÍQUIDA - RCL</t>
-  </si>
-  <si>
-    <t>RECEITA CORRENTE LÍQUIDA - RCL (IV)</t>
-  </si>
-  <si>
-    <t>DÍVIDA CONSOLIDADA LÍQUIDA (DCL) (III) = (I - II)</t>
-  </si>
-  <si>
-    <t>% da DCL sobre a RCL (III/RCL)</t>
-  </si>
-  <si>
-    <t>% da DCL sobre a RCL AJUSTADA (III/VI)</t>
-  </si>
-  <si>
     <t>01/01/2015</t>
   </si>
   <si>
@@ -71,6 +56,15 @@
   </si>
   <si>
     <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>RECEITA CORRENTE LÍQUIDA</t>
+  </si>
+  <si>
+    <t>DÍVIDA CONSOLIDADA LÍQUIDA</t>
+  </si>
+  <si>
+    <t>% da DCL sobre a RCL</t>
   </si>
 </sst>
 </file>
@@ -447,6 +441,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +457,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>9577399249.9497318</v>
@@ -473,10 +468,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>9626555723.4748821</v>
@@ -484,10 +479,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>9485355152.6496353</v>
@@ -495,10 +490,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>9788840772.3101368</v>
@@ -506,10 +501,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>10253146539.487062</v>
@@ -517,10 +512,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>10627309992.422495</v>
@@ -528,10 +523,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>10707062454.847326</v>
@@ -539,10 +534,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>11818109406.019888</v>
@@ -550,10 +545,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>12629587874.940001</v>
@@ -561,10 +556,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>6611268803.2080736</v>
@@ -572,10 +567,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5817692324.3169909</v>
@@ -583,10 +578,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5500382880.1027079</v>
@@ -594,10 +589,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4514991488.5664921</v>
@@ -605,10 +600,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>4704481373.6487322</v>
@@ -616,10 +611,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>4098090235.2172203</v>
@@ -627,10 +622,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>3146755893.0952368</v>
@@ -638,10 +633,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>3707431078.5510244</v>
@@ -649,10 +644,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>2884664295.48</v>
@@ -660,10 +655,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>69.03</v>
@@ -671,10 +666,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>60.43</v>
@@ -682,10 +677,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>57.99</v>
@@ -693,10 +688,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>46.12</v>
@@ -704,10 +699,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>45.88</v>
@@ -715,10 +710,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>38.67</v>
@@ -726,10 +721,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>29.4</v>
@@ -737,10 +732,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>31.38</v>
@@ -748,10 +743,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>22.91</v>
